--- a/data-raw/_raw/vn/2019/rd_20190702-phen.xlsx
+++ b/data-raw/_raw/vn/2019/rd_20190702-phen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vnichols\Box Sync\1_Gina_Projects\proj_Marsden\_theme-2019data\_data\raw_entered\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vnichols\Box Sync\1_Gina_Projects\proj_Marsden\_theme-2019data\_data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>date</t>
   </si>
@@ -55,9 +55,6 @@
     <t>What: Plant phenology</t>
   </si>
   <si>
-    <t>stage_Vx</t>
-  </si>
-  <si>
     <t>plht_cm</t>
   </si>
   <si>
@@ -65,6 +62,15 @@
   </si>
   <si>
     <t>When: 7/2/2019</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>V6</t>
+  </si>
+  <si>
+    <t>V7</t>
   </si>
 </sst>
 </file>
@@ -462,8 +468,8 @@
   </sheetPr>
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:I30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -495,12 +501,12 @@
     </row>
     <row r="2" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -535,13 +541,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>6</v>
@@ -573,8 +579,8 @@
       <c r="E7" s="23">
         <v>22.32</v>
       </c>
-      <c r="G7" s="3">
-        <v>6</v>
+      <c r="G7" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="H7" s="11">
         <v>6</v>
@@ -601,8 +607,8 @@
         <v>21.59</v>
       </c>
       <c r="F8" s="18"/>
-      <c r="G8" s="11">
-        <v>6</v>
+      <c r="G8" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="H8" s="11">
         <v>6</v>
@@ -629,8 +635,8 @@
         <v>19.7</v>
       </c>
       <c r="F9" s="18"/>
-      <c r="G9" s="11">
-        <v>6</v>
+      <c r="G9" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="H9" s="11">
         <v>6</v>
@@ -660,8 +666,8 @@
       <c r="F10" s="3">
         <v>6.75</v>
       </c>
-      <c r="G10" s="18">
-        <v>6</v>
+      <c r="G10" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="H10" s="18">
         <v>6</v>
@@ -687,8 +693,8 @@
       <c r="F11" s="3">
         <v>7.5</v>
       </c>
-      <c r="G11" s="18">
-        <v>6</v>
+      <c r="G11" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="H11" s="18">
         <v>6</v>
@@ -714,8 +720,8 @@
       <c r="F12" s="3">
         <v>7.25</v>
       </c>
-      <c r="G12" s="18">
-        <v>6</v>
+      <c r="G12" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="H12" s="18">
         <v>6</v>
@@ -746,8 +752,8 @@
       <c r="F13" s="18">
         <v>7.5</v>
       </c>
-      <c r="G13" s="18">
-        <v>6</v>
+      <c r="G13" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="H13" s="18">
         <v>6</v>
@@ -774,8 +780,8 @@
       <c r="F14" s="18">
         <v>7</v>
       </c>
-      <c r="G14" s="18">
-        <v>6</v>
+      <c r="G14" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="H14" s="18">
         <v>6</v>
@@ -802,8 +808,8 @@
       <c r="F15" s="18">
         <v>8</v>
       </c>
-      <c r="G15" s="18">
-        <v>6</v>
+      <c r="G15" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="H15" s="18">
         <v>6</v>
@@ -834,8 +840,8 @@
       <c r="F16" s="18">
         <v>6.5</v>
       </c>
-      <c r="G16" s="18">
-        <v>6</v>
+      <c r="G16" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="H16" s="18">
         <v>6</v>
@@ -862,8 +868,8 @@
       <c r="F17" s="18">
         <v>7.25</v>
       </c>
-      <c r="G17" s="18">
-        <v>6</v>
+      <c r="G17" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="H17" s="18">
         <v>6</v>
@@ -890,8 +896,8 @@
         <v>17.8</v>
       </c>
       <c r="F18" s="18"/>
-      <c r="G18" s="18">
-        <v>6</v>
+      <c r="G18" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="H18" s="18">
         <v>6</v>
@@ -922,8 +928,8 @@
         <v>19.100000000000001</v>
       </c>
       <c r="F19" s="18"/>
-      <c r="G19" s="18">
-        <v>6</v>
+      <c r="G19" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="H19" s="18">
         <v>6</v>
@@ -950,8 +956,8 @@
         <v>17.8</v>
       </c>
       <c r="F20" s="19"/>
-      <c r="G20" s="19">
-        <v>6</v>
+      <c r="G20" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="H20" s="19">
         <v>6</v>
@@ -977,8 +983,8 @@
         <v>19.100000000000001</v>
       </c>
       <c r="F21" s="19"/>
-      <c r="G21" s="19">
-        <v>7</v>
+      <c r="G21" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="H21" s="19">
         <v>7</v>
@@ -1008,8 +1014,8 @@
       <c r="F22" s="19">
         <v>6.5</v>
       </c>
-      <c r="G22" s="19">
-        <v>6</v>
+      <c r="G22" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="H22" s="19">
         <v>6</v>
@@ -1035,8 +1041,8 @@
         <v>17.8</v>
       </c>
       <c r="F23" s="19"/>
-      <c r="G23" s="19">
-        <v>6</v>
+      <c r="G23" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="H23" s="19">
         <v>6</v>
@@ -1062,8 +1068,8 @@
       <c r="F24" s="19">
         <v>6.75</v>
       </c>
-      <c r="G24" s="19">
-        <v>6</v>
+      <c r="G24" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="H24" s="19">
         <v>6</v>
@@ -1093,8 +1099,8 @@
         <v>16.5</v>
       </c>
       <c r="F25" s="19"/>
-      <c r="G25" s="19">
-        <v>6</v>
+      <c r="G25" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="H25" s="19">
         <v>6</v>
@@ -1120,8 +1126,8 @@
         <v>17.8</v>
       </c>
       <c r="F26" s="19"/>
-      <c r="G26" s="19">
-        <v>7</v>
+      <c r="G26" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="H26" s="19">
         <v>7</v>
@@ -1147,8 +1153,8 @@
         <v>16.5</v>
       </c>
       <c r="F27" s="19"/>
-      <c r="G27" s="19">
-        <v>6</v>
+      <c r="G27" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="H27" s="19">
         <v>6</v>
@@ -1178,8 +1184,8 @@
         <v>18.399999999999999</v>
       </c>
       <c r="F28" s="20"/>
-      <c r="G28" s="20">
-        <v>6</v>
+      <c r="G28" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="H28" s="20">
         <v>6</v>
@@ -1199,8 +1205,8 @@
         <v>18.399999999999999</v>
       </c>
       <c r="F29" s="20"/>
-      <c r="G29" s="20">
-        <v>6</v>
+      <c r="G29" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="H29" s="20">
         <v>6</v>
@@ -1220,8 +1226,8 @@
         <v>16.5</v>
       </c>
       <c r="F30" s="20"/>
-      <c r="G30" s="20">
-        <v>6</v>
+      <c r="G30" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="H30" s="20">
         <v>6</v>
